--- a/sources/case/RequestTransfer.xlsx
+++ b/sources/case/RequestTransfer.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dandanzhan/Workspace/QiFeiApi/sources/case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -67,31 +67,40 @@
     <t>application/json</t>
   </si>
   <si>
+    <t>RequestTransfer_01</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>${GetInstanceInfo.tasks[1].uuid}</t>
+  </si>
+  <si>
     <t>employee_id</t>
-  </si>
-  <si>
-    <t>7e2bb13d-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
-    <t>RequestTransfer_01</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>${GetInstanceInfo.tasks[1].uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_10.employee_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -122,13 +131,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -403,16 +415,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
     <col min="4" max="4" width="32.5" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -432,7 +444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -453,6 +465,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -461,40 +474,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="36.83203125" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" customWidth="1"/>
+    <col min="1" max="1" width="36.875" customWidth="1"/>
+    <col min="2" max="2" width="39.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -503,26 +517,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/case/RequestTransfer.xlsx
+++ b/sources/case/RequestTransfer.xlsx
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -102,6 +102,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,9 +131,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,56 +420,103 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="32.5" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1"/>
+    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -470,69 +525,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="36.875" customWidth="1"/>
-    <col min="2" max="2" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="20.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
